--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama1-Itga1.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.28121633333333</v>
+        <v>71.541692</v>
       </c>
       <c r="N2">
-        <v>129.843649</v>
+        <v>214.625076</v>
       </c>
       <c r="O2">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="P2">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="Q2">
-        <v>2.435246491139222</v>
+        <v>4.025340994841333</v>
       </c>
       <c r="R2">
-        <v>21.917218420253</v>
+        <v>36.228068953572</v>
       </c>
       <c r="S2">
-        <v>0.1456402419489249</v>
+        <v>0.1673486831912561</v>
       </c>
       <c r="T2">
-        <v>0.1456402419489249</v>
+        <v>0.1673486831912561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>29.595114</v>
       </c>
       <c r="O3">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="P3">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="Q3">
         <v>0.5550629397620001</v>
@@ -635,10 +635,10 @@
         <v>4.995566457858</v>
       </c>
       <c r="S3">
-        <v>0.03319561331387118</v>
+        <v>0.02307607036931281</v>
       </c>
       <c r="T3">
-        <v>0.03319561331387118</v>
+        <v>0.02307607036931281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.482795</v>
+        <v>35.05835333333334</v>
       </c>
       <c r="N4">
-        <v>79.448385</v>
+        <v>105.17506</v>
       </c>
       <c r="O4">
-        <v>0.3265889420705065</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="P4">
-        <v>0.3265889420705066</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="Q4">
-        <v>1.490072115871667</v>
+        <v>1.972581622535556</v>
       </c>
       <c r="R4">
-        <v>13.410649042845</v>
+        <v>17.75323460282</v>
       </c>
       <c r="S4">
-        <v>0.08911396208413196</v>
+        <v>0.08200769510996636</v>
       </c>
       <c r="T4">
-        <v>0.08911396208413197</v>
+        <v>0.08200769510996636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>0.2728627660176361</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.460025</v>
+        <v>0.183961</v>
       </c>
       <c r="N5">
-        <v>4.380075</v>
+        <v>0.551883</v>
       </c>
       <c r="O5">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="P5">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="Q5">
-        <v>0.08214927997499999</v>
+        <v>0.01035068830566667</v>
       </c>
       <c r="R5">
-        <v>0.739343519775</v>
+        <v>0.09315619475100001</v>
       </c>
       <c r="S5">
-        <v>0.004912948670708087</v>
+        <v>0.000430317347100858</v>
       </c>
       <c r="T5">
-        <v>0.004912948670708087</v>
+        <v>0.000430317347100858</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.28121633333333</v>
+        <v>71.541692</v>
       </c>
       <c r="N6">
-        <v>129.843649</v>
+        <v>214.625076</v>
       </c>
       <c r="O6">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="P6">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="Q6">
-        <v>6.489556722875777</v>
+        <v>10.72691360401867</v>
       </c>
       <c r="R6">
-        <v>58.40601050588199</v>
+        <v>96.542222436168</v>
       </c>
       <c r="S6">
-        <v>0.388108807342438</v>
+        <v>0.4459584588335365</v>
       </c>
       <c r="T6">
-        <v>0.388108807342438</v>
+        <v>0.4459584588335365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,10 +871,10 @@
         <v>29.595114</v>
       </c>
       <c r="O7">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="P7">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="Q7">
         <v>1.479157221028</v>
@@ -883,10 +883,10 @@
         <v>13.312414989252</v>
       </c>
       <c r="S7">
-        <v>0.08846119533889173</v>
+        <v>0.06149417241647393</v>
       </c>
       <c r="T7">
-        <v>0.08846119533889173</v>
+        <v>0.06149417241647393</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.482795</v>
+        <v>35.05835333333334</v>
       </c>
       <c r="N8">
-        <v>79.448385</v>
+        <v>105.17506</v>
       </c>
       <c r="O8">
-        <v>0.3265889420705065</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="P8">
-        <v>0.3265889420705066</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="Q8">
-        <v>3.970812627103333</v>
+        <v>5.256626126564445</v>
       </c>
       <c r="R8">
-        <v>35.73731364393001</v>
+        <v>47.30963513908001</v>
       </c>
       <c r="S8">
-        <v>0.2374749799863746</v>
+        <v>0.2185378732973622</v>
       </c>
       <c r="T8">
-        <v>0.2374749799863746</v>
+        <v>0.2185378732973622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,34 +983,34 @@
         <v>0.7271372339823639</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.460025</v>
+        <v>0.183961</v>
       </c>
       <c r="N9">
-        <v>4.380075</v>
+        <v>0.551883</v>
       </c>
       <c r="O9">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="P9">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="Q9">
-        <v>0.21891517515</v>
+        <v>0.02758298969933334</v>
       </c>
       <c r="R9">
-        <v>1.97023657635</v>
+        <v>0.248246907294</v>
       </c>
       <c r="S9">
-        <v>0.01309225131465944</v>
+        <v>0.001146729434991225</v>
       </c>
       <c r="T9">
-        <v>0.01309225131465945</v>
+        <v>0.001146729434991225</v>
       </c>
     </row>
   </sheetData>
